--- a/excel_files/FDI-inward-flows.xlsx
+++ b/excel_files/FDI-inward-flows.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="26835" windowHeight="9720"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="26840" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -106,13 +111,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,36 +419,36 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,49 +459,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>823</v>
+        <v>291</v>
       </c>
       <c r="C5" s="3">
-        <v>436.19</v>
+        <v>154</v>
       </c>
       <c r="D5" s="4">
         <v>0.47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2686</v>
+        <v>1194</v>
       </c>
       <c r="C6" s="3">
-        <v>1719.04</v>
+        <v>767</v>
       </c>
       <c r="D6" s="4">
         <v>0.36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>936</v>
+        <v>691</v>
       </c>
       <c r="C7" s="3">
-        <v>617.76</v>
+        <v>457</v>
       </c>
       <c r="D7" s="4">
         <v>0.34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -510,7 +515,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -524,7 +529,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -538,7 +543,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -558,6 +563,11 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -567,9 +577,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -579,8 +594,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>